--- a/BaseNo1C_Specification_EN_RUS.xlsx
+++ b/BaseNo1C_Specification_EN_RUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaseNo1C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6781A122-E360-4AC9-87C6-F017EC00843D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D20FEA2-F492-4A84-87BC-29740151F97F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="130">
   <si>
     <t>Счет</t>
   </si>
@@ -1944,9 +1944,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1955,7 +1955,7 @@
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>118</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>77</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>103</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>104</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>112</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
@@ -2027,26 +2027,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -2186,7 +2177,7 @@
   </sheetPr>
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/BaseNo1C_Specification_EN_RUS.xlsx
+++ b/BaseNo1C_Specification_EN_RUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaseNo1C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D20FEA2-F492-4A84-87BC-29740151F97F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1272C190-CF06-46BA-BD7E-3C20EE0062C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -32,14 +32,13 @@
     <sheet name="Slice" sheetId="399" r:id="rId17"/>
     <sheet name="Tax" sheetId="93" r:id="rId18"/>
     <sheet name="Unit" sheetId="91" r:id="rId19"/>
-    <sheet name="_Enum" sheetId="480" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="81">
   <si>
     <t>Счет</t>
   </si>
@@ -87,153 +86,6 @@
   </si>
   <si>
     <t>Ед изм</t>
-  </si>
-  <si>
-    <t>вариант представления\бухсчет</t>
-  </si>
-  <si>
-    <t>вариант представления\аналитика</t>
-  </si>
-  <si>
-    <t>вариант представления\договора</t>
-  </si>
-  <si>
-    <t>вариант представления\бюджет</t>
-  </si>
-  <si>
-    <t>вариант представления\приход, реализация, оплата, списание, перемещение, возврат, счета, договора</t>
-  </si>
-  <si>
-    <t>вариант представления\приход</t>
-  </si>
-  <si>
-    <t>вариант представления\реализация</t>
-  </si>
-  <si>
-    <t>вариант представления\оплата</t>
-  </si>
-  <si>
-    <t>вариант представления\списание</t>
-  </si>
-  <si>
-    <t>вариант представления\перемещение</t>
-  </si>
-  <si>
-    <t>вариант представления\возврат</t>
-  </si>
-  <si>
-    <t>вариант представления\счета</t>
-  </si>
-  <si>
-    <t>вариант представления\ОПВ, СО, ОСМС</t>
-  </si>
-  <si>
-    <t>вариант представления\ОПВ</t>
-  </si>
-  <si>
-    <t>вариант представления\СО</t>
-  </si>
-  <si>
-    <t>вариант представления\ОСМС</t>
-  </si>
-  <si>
-    <t>вариант представления\баланс, ФХД, ДДС, капитал</t>
-  </si>
-  <si>
-    <t>вариант представления\баланс</t>
-  </si>
-  <si>
-    <t>вариант представления\ФХД</t>
-  </si>
-  <si>
-    <t>вариант представления\ДДС</t>
-  </si>
-  <si>
-    <t>вариант представления\капитал</t>
-  </si>
-  <si>
-    <t>вариант представления\ф200, ф300, ф328, ф910, ф100.01</t>
-  </si>
-  <si>
-    <t>вариант представления\ф200</t>
-  </si>
-  <si>
-    <t>вариант представления\ф300</t>
-  </si>
-  <si>
-    <t>вариант представления\ф328</t>
-  </si>
-  <si>
-    <t>вариант представления\ф910</t>
-  </si>
-  <si>
-    <t>вариант представления\ф100.01</t>
-  </si>
-  <si>
-    <t>вариант представления\договор</t>
-  </si>
-  <si>
-    <t>вариант представления\лицо</t>
-  </si>
-  <si>
-    <t>вариант представления\актив</t>
-  </si>
-  <si>
-    <t>вариант представления\бухсчет, аналитика, актив, лицо, договор, бюджет</t>
-  </si>
-  <si>
-    <t>Перечисления для работы</t>
-  </si>
-  <si>
-    <t>в документах ---</t>
-  </si>
-  <si>
-    <t>DocumentActionEnum</t>
-  </si>
-  <si>
-    <t>Calc</t>
-  </si>
-  <si>
-    <t>Fill</t>
-  </si>
-  <si>
-    <t>Рассчитать</t>
-  </si>
-  <si>
-    <t>Обнулить</t>
-  </si>
-  <si>
-    <t>ToNull</t>
-  </si>
-  <si>
-    <t>сн, гфсс, ипн и т.д.</t>
-  </si>
-  <si>
-    <t>ReCalc</t>
-  </si>
-  <si>
-    <t>Перерасчет</t>
-  </si>
-  <si>
-    <t>при вводе факт оклада факт часов, факт цены и т.д.</t>
-  </si>
-  <si>
-    <t>дейсттвия документа, отчета и т.д.</t>
-  </si>
-  <si>
-    <t>Выборка данных из других документов</t>
-  </si>
-  <si>
-    <t>среднняя зарплата, предыдущие отпускные, компенсация и т.д.</t>
-  </si>
-  <si>
-    <t>Очистить</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>Заполнить, дозаполнить -если уже есть строки</t>
   </si>
   <si>
     <t>Unit</t>
@@ -508,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -578,21 +430,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -611,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -666,14 +503,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -691,11 +525,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -704,10 +538,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1059,20 +893,20 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>75</v>
+      <c r="A3" s="46" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +925,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -1106,15 +940,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -1126,43 +960,43 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
+      <c r="A5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1170,26 +1004,17 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>72</v>
+      <c r="A11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -1217,15 +1042,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -1237,43 +1062,43 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
+      <c r="A5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1281,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1289,16 +1114,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1327,15 +1152,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -1348,74 +1173,74 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>94</v>
+      <c r="A10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1423,24 +1248,24 @@
         <v>2</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C16" s="14"/>
     </row>
@@ -1449,24 +1274,24 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1311,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="40" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -1494,23 +1319,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>85</v>
+      <c r="A2" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1519,38 +1344,38 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
-        <v>105</v>
+      <c r="A6" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
-        <v>106</v>
+      <c r="A7" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -1558,35 +1383,35 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>94</v>
+      <c r="A9" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
-        <v>103</v>
+      <c r="A10" s="38" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>104</v>
+      <c r="A11" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1594,16 +1419,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>73</v>
+      <c r="A14" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="19"/>
@@ -1627,11 +1452,11 @@
       <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>108</v>
+      <c r="A16" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="19"/>
@@ -1641,11 +1466,11 @@
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>124</v>
+      <c r="A17" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="19"/>
@@ -1656,10 +1481,10 @@
     </row>
     <row r="18" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="19"/>
@@ -1669,10 +1494,10 @@
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="14"/>
@@ -1683,11 +1508,11 @@
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>96</v>
+      <c r="A20" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="19"/>
@@ -1698,10 +1523,10 @@
     </row>
     <row r="21" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="19"/>
@@ -1711,10 +1536,10 @@
       <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="14"/>
@@ -1725,11 +1550,11 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>66</v>
+      <c r="A23" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="19"/>
@@ -1740,10 +1565,10 @@
     </row>
     <row r="24" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="19"/>
@@ -1754,10 +1579,10 @@
     </row>
     <row r="25" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="19"/>
@@ -1767,11 +1592,11 @@
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>90</v>
+      <c r="A26" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="19"/>
@@ -1782,10 +1607,10 @@
     </row>
     <row r="27" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="19"/>
@@ -1799,16 +1624,16 @@
         <v>15</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1842,15 +1667,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -1863,42 +1688,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1906,31 +1731,31 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +1771,7 @@
   </sheetPr>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1960,15 +1785,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -1980,43 +1805,43 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
+      <c r="A5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2024,15 +1849,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2069,16 +1894,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2090,43 +1915,43 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
+      <c r="A5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2134,33 +1959,33 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="D13" s="14"/>
     </row>
@@ -2190,15 +2015,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2210,43 +2035,43 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
+      <c r="A5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2254,15 +2079,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2276,7 +2101,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -2315,59 +2140,59 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2375,47 +2200,39 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>11</v>
+      <c r="A14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>72</v>
+      <c r="A15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>115</v>
+      <c r="A16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2249,7 @@
   </sheetPr>
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2447,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2455,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2468,42 +2285,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2511,33 +2328,33 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C13" s="14"/>
     </row>
@@ -2593,35 +2410,35 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
+      <c r="A5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>94</v>
+      <c r="A7" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -2629,10 +2446,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -2640,10 +2457,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C10" s="14"/>
     </row>
@@ -2652,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="14"/>
@@ -2669,18 +2486,18 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C14" s="14"/>
     </row>
@@ -2689,350 +2506,6 @@
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3079,35 +2552,35 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
+      <c r="A5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3119,38 +2592,38 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>94</v>
+      <c r="A10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C13" s="14"/>
     </row>
@@ -3159,45 +2632,45 @@
         <v>2</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>128</v>
+      <c r="A16" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C18" s="14"/>
     </row>
@@ -3206,25 +2679,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3256,15 +2729,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -3277,34 +2750,34 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3316,39 +2789,39 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>94</v>
+      <c r="A10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -3358,51 +2831,51 @@
         <v>2</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3453,58 +2926,58 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>94</v>
+      <c r="A9" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -3515,10 +2988,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3526,41 +2999,41 @@
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -3572,10 +3045,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3611,15 +3084,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -3632,42 +3105,42 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3675,15 +3148,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -3696,7 +3169,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3706,10 +3179,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -3736,10 +3209,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="30" style="46" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="46" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="46"/>
+    <col min="1" max="1" width="28.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="30" style="45" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="45" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="45"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -3747,15 +3220,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3767,43 +3240,43 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
+      <c r="A5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3811,15 +3284,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3849,7 +3322,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3862,15 +3335,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3882,43 +3355,43 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>117</v>
+      <c r="A6" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3926,15 +3399,15 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,12 +3416,12 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +3438,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3975,10 +3448,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -3990,36 +3463,36 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>117</v>
+      <c r="A3" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4032,37 +3505,37 @@
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>94</v>
+      <c r="A8" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C11" s="14"/>
     </row>
@@ -4071,24 +3544,24 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>73</v>
+      <c r="A14" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4100,19 +3573,19 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>108</v>
+      <c r="A16" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4126,26 +3599,26 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>96</v>
+      <c r="A20" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>66</v>
+      <c r="A21" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4158,37 +3631,37 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>90</v>
+      <c r="A25" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C26" s="20"/>
     </row>
@@ -4197,25 +3670,25 @@
         <v>15</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/BaseNo1C_Specification_EN_RUS.xlsx
+++ b/BaseNo1C_Specification_EN_RUS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaseNo1C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\BaseNo1C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1272C190-CF06-46BA-BD7E-3C20EE0062C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFF5E02-008C-41FE-8232-476621679D81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="83">
   <si>
     <t>Счет</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>Актив1</t>
+  </si>
+  <si>
+    <t>Account1</t>
+  </si>
+  <si>
+    <t>Бухсчет1</t>
   </si>
 </sst>
 </file>
@@ -1137,9 +1143,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C19"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1212,86 +1220,70 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>45</v>
+      <c r="A10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>52</v>
+      <c r="A11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>53</v>
+      <c r="A12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>65</v>
+      <c r="A13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>64</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>23</v>
+      <c r="A15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
+      <c r="A16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>15</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="10" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2095,7 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2249,7 +2241,7 @@
   </sheetPr>
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2370,9 +2362,11 @@
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2473,33 +2467,42 @@
       </c>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C15" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2514,11 +2517,9 @@
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2592,113 +2593,96 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="14"/>
+      <c r="A10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="A11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>65</v>
+      <c r="A13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="14"/>
+      <c r="A15" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>23</v>
+      <c r="A17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>21</v>
+      <c r="A18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>15</v>
+      <c r="A19" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2713,9 +2697,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D19"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2789,94 +2775,78 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>45</v>
-      </c>
+      <c r="A10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="14"/>
+      <c r="A11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="27"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="27"/>
+        <v>65</v>
+      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>65</v>
+      <c r="A13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
+      <c r="A16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>21</v>
+      <c r="A17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2890,7 +2860,7 @@
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -2900,7 +2870,7 @@
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2916,7 +2886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2924,7 +2894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
@@ -2932,7 +2902,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
@@ -2940,7 +2910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>56</v>
       </c>
@@ -2948,7 +2918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>57</v>
       </c>
@@ -2956,100 +2926,84 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>21</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/BaseNo1C_Specification_EN_RUS.xlsx
+++ b/BaseNo1C_Specification_EN_RUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\BaseNo1C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFF5E02-008C-41FE-8232-476621679D81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF31BE-4815-44C4-8009-0F8D8D637BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="772" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -26,19 +26,18 @@
     <sheet name="Meter" sheetId="481" r:id="rId11"/>
     <sheet name="Price" sheetId="219" r:id="rId12"/>
     <sheet name="Process" sheetId="30" r:id="rId13"/>
-    <sheet name="Report" sheetId="462" r:id="rId14"/>
-    <sheet name="Role" sheetId="273" r:id="rId15"/>
-    <sheet name="Sign" sheetId="254" r:id="rId16"/>
-    <sheet name="Slice" sheetId="399" r:id="rId17"/>
-    <sheet name="Tax" sheetId="93" r:id="rId18"/>
-    <sheet name="Unit" sheetId="91" r:id="rId19"/>
+    <sheet name="Role" sheetId="273" r:id="rId14"/>
+    <sheet name="Sign" sheetId="254" r:id="rId15"/>
+    <sheet name="Slice" sheetId="399" r:id="rId16"/>
+    <sheet name="Tax" sheetId="93" r:id="rId17"/>
+    <sheet name="Unit" sheetId="91" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="83">
   <si>
     <t>Счет</t>
   </si>
@@ -250,12 +249,6 @@
     <t>Ид</t>
   </si>
   <si>
-    <t>Отчет</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
     <t>ДАННЫЕ О ПРОЕКТЕ BaseNo1C</t>
   </si>
   <si>
@@ -287,6 +280,12 @@
   </si>
   <si>
     <t>Бухсчет1</t>
+  </si>
+  <si>
+    <t>эта таблица одна заменяет более 20-ти таблиц, иначе которых бы пришлось сделать,</t>
+  </si>
+  <si>
+    <t>а также вставить в другие таблицы внешние ключи для обращения к этим таблицам</t>
   </si>
 </sst>
 </file>
@@ -454,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -548,6 +547,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -899,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1459,10 +1459,10 @@
     </row>
     <row r="17" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="19"/>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="27" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="19"/>
@@ -1637,133 +1637,15 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:B13"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1856,13 +1738,23 @@
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1987,7 +1879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2088,14 +1980,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2234,7 +2126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2334,10 +2226,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14"/>
     </row>
@@ -2364,9 +2256,7 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2469,10 +2359,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="14"/>
     </row>
@@ -2639,10 +2529,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>31</v>
@@ -3008,7 +2898,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3157,9 +3047,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3252,6 +3142,16 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -3612,10 +3512,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="20"/>
     </row>

--- a/BaseNo1C_Specification_EN_RUS.xlsx
+++ b/BaseNo1C_Specification_EN_RUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\BaseNo1C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF08879-3A8C-45A8-ABF2-072B6A142662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43405DA-5EFF-4E27-B79B-658B2A12CA7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="Geo" sheetId="172" r:id="rId6"/>
     <sheet name="Info" sheetId="339" r:id="rId7"/>
     <sheet name="Item" sheetId="98" r:id="rId8"/>
-    <sheet name="Log" sheetId="236" r:id="rId9"/>
-    <sheet name="Mark" sheetId="342" r:id="rId10"/>
-    <sheet name="Meter" sheetId="481" r:id="rId11"/>
-    <sheet name="Price" sheetId="219" r:id="rId12"/>
-    <sheet name="Process" sheetId="30" r:id="rId13"/>
-    <sheet name="Role" sheetId="273" r:id="rId14"/>
-    <sheet name="Sign" sheetId="254" r:id="rId15"/>
-    <sheet name="Slice" sheetId="399" r:id="rId16"/>
-    <sheet name="Tax" sheetId="93" r:id="rId17"/>
-    <sheet name="Unit" sheetId="91" r:id="rId18"/>
+    <sheet name="Mark" sheetId="342" r:id="rId9"/>
+    <sheet name="Meter" sheetId="481" r:id="rId10"/>
+    <sheet name="Price" sheetId="219" r:id="rId11"/>
+    <sheet name="Process" sheetId="30" r:id="rId12"/>
+    <sheet name="Role" sheetId="273" r:id="rId13"/>
+    <sheet name="Sign" sheetId="254" r:id="rId14"/>
+    <sheet name="Slice" sheetId="399" r:id="rId15"/>
+    <sheet name="Tax" sheetId="93" r:id="rId16"/>
+    <sheet name="Unit" sheetId="91" r:id="rId17"/>
+    <sheet name="Workbook" sheetId="236" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -907,108 +907,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:C11"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1118,7 +1016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1272,14 +1170,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1616,7 +1514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1734,7 +1632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1859,7 +1757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1960,7 +1858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2105,7 +2003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2225,6 +2123,272 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2568,9 +2732,7 @@
   </sheetPr>
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2889,7 +3051,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3261,267 +3423,103 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B5" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10"/>
+      <c r="A7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>43</v>
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BaseNo1C_Specification_EN_RUS.xlsx
+++ b/BaseNo1C_Specification_EN_RUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ТЕКУЩАЯ РАБОТА\BaseNo1C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43405DA-5EFF-4E27-B79B-658B2A12CA7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300ADC0-9762-49C5-A051-CF962751BC44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" tabRatio="772" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -2010,9 +2010,7 @@
   </sheetPr>
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
